--- a/data/metadata/isoform_list.xlsx
+++ b/data/metadata/isoform_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NY\data\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indef\Documents\NY\project\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA502F30-A382-4B05-BA3C-95F7AED1D26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="18260" windowHeight="8840" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>p95HER2</t>
   </si>
@@ -121,7 +122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -278,23 +279,26 @@
     <t>Binding?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Furthermore, the efficacy of trastuzumab in d16HER2-overexpressing cancer models is controversial, given their resistance in vitro and sensitivity in vivo.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -303,7 +307,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -468,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,9 +500,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -511,16 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -535,13 +533,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,23 +816,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="105.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="105.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -857,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -886,7 +884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -901,7 +899,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -925,7 +923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -938,6 +936,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
@@ -951,7 +952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -971,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -991,7 +992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1051,16 +1052,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:6">
       <c r="F18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1068,23 +1069,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" customWidth="1"/>
+    <col min="6" max="6" width="37.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1104,8 +1105,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1126,8 +1127,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -1144,8 +1145,8 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1167,8 +1168,8 @@
       <c r="I4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1184,8 +1185,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -1204,8 +1205,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1225,8 +1226,8 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -1242,8 +1243,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
@@ -1262,7 +1263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:7">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -1273,88 +1274,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="7" width="13.6328125" customWidth="1"/>
+    <col min="1" max="7" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
